--- a/Check.xlsx
+++ b/Check.xlsx
@@ -62,7 +62,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +87,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,6 +209,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,7 +497,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,28 +523,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="81.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -544,28 +553,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -574,28 +583,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Магазин</t>
+  </si>
+  <si>
+    <t>Проверка на валидность заполнения полей при создании пользователя</t>
+  </si>
+  <si>
+    <t>Проверка входа/выхода пользователя в систему</t>
+  </si>
+  <si>
+    <t>Проверка создания, удаления, изменения данных пользователя</t>
+  </si>
+  <si>
+    <t>Просмотр пользователя (данные)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка на валидность заполнения полей при создании пользователя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка создания, удаления, изменения данных питомца </t>
+  </si>
+  <si>
+    <t>Просмотр питомца(данные)</t>
+  </si>
+  <si>
+    <t>Проверка поиска, добавления, удаления питомца в заказы</t>
+  </si>
+  <si>
+    <t>Проверка подчета питомцев в запасе</t>
   </si>
 </sst>
 </file>
@@ -202,6 +229,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -209,9 +239,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,92 +546,110 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="81.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
